--- a/data/trans_orig/P04D$aparatos-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04D$aparatos-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>716459</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>686313</v>
+        <v>685808</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>744813</v>
+        <v>742223</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7365698160532428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7055776733096566</v>
+        <v>0.7050585846877392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7657199347724856</v>
+        <v>0.7630572490592945</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>900</v>
@@ -764,19 +764,19 @@
         <v>969864</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>935086</v>
+        <v>937494</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1003296</v>
+        <v>1001632</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7249708117837192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6989746300854259</v>
+        <v>0.7007742078218728</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7499613929570553</v>
+        <v>0.7487175853398358</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1566</v>
@@ -785,19 +785,19 @@
         <v>1686322</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1639830</v>
+        <v>1644389</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1730835</v>
+        <v>1731991</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7298538863325845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7097316042688758</v>
+        <v>0.7117050227634499</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7491191945277517</v>
+        <v>0.7496194625157033</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>11321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6013</v>
+        <v>5598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18997</v>
+        <v>19938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0116383236315943</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006181703787388562</v>
+        <v>0.005755297000094182</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01952987418444525</v>
+        <v>0.02049731658820894</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -835,19 +835,19 @@
         <v>23267</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14828</v>
+        <v>14364</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34515</v>
+        <v>35051</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01739210753864113</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01108386907057039</v>
+        <v>0.01073695006274308</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02579980560067956</v>
+        <v>0.02620033661681345</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -856,19 +856,19 @@
         <v>34588</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23573</v>
+        <v>25030</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49308</v>
+        <v>50000</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01496981721929074</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01020278314331402</v>
+        <v>0.0108332208603484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02134083304188751</v>
+        <v>0.02164035112450559</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>196833</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>171178</v>
+        <v>174159</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>223394</v>
+        <v>227902</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2023580248333631</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1759825757964017</v>
+        <v>0.1790479425081625</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2296649547959602</v>
+        <v>0.2342995915984944</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>261</v>
@@ -906,19 +906,19 @@
         <v>275429</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>246812</v>
+        <v>247158</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>308465</v>
+        <v>308003</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2058824554226224</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1844909972451501</v>
+        <v>0.1847502297401047</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.230576860922584</v>
+        <v>0.2302315462843366</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>444</v>
@@ -927,19 +927,19 @@
         <v>472262</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>433173</v>
+        <v>432191</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>511521</v>
+        <v>512431</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2043987024288526</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1874807892383721</v>
+        <v>0.1870557182006359</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2213903728543035</v>
+        <v>0.2217844649729493</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>50331</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37375</v>
+        <v>37989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66477</v>
+        <v>63964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05174396821209284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03842452409948728</v>
+        <v>0.03905557180582184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06834349646731297</v>
+        <v>0.06575902967438781</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -977,19 +977,19 @@
         <v>75781</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60436</v>
+        <v>60778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94203</v>
+        <v>94754</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05664647808368123</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04517612058911723</v>
+        <v>0.04543123248879673</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07041639328169522</v>
+        <v>0.07082833309133112</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -998,19 +998,19 @@
         <v>126113</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106269</v>
+        <v>105704</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149681</v>
+        <v>148656</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05458256633546207</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04599424641355319</v>
+        <v>0.04574945923598388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06478313057882591</v>
+        <v>0.0643395679578684</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1206290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1156810</v>
+        <v>1159313</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1249091</v>
+        <v>1250871</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6158280941062457</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5905679026307695</v>
+        <v>0.5918460266872801</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.637678832463799</v>
+        <v>0.6385874830912895</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1009</v>
@@ -1052,19 +1052,19 @@
         <v>1093777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1049930</v>
+        <v>1051648</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1134623</v>
+        <v>1138895</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6237341414761793</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5987298062267983</v>
+        <v>0.5997098736914729</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6470266324716244</v>
+        <v>0.6494630103240635</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2152</v>
@@ -1073,19 +1073,19 @@
         <v>2300067</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2234269</v>
+        <v>2242166</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2359497</v>
+        <v>2358178</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.619562603031558</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6018387280881328</v>
+        <v>0.6039658033987163</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6355708783278822</v>
+        <v>0.6352156815764857</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>66804</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53545</v>
+        <v>48437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>86479</v>
+        <v>83719</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0341044005946026</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02733552074147533</v>
+        <v>0.02472799384441901</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04414861505823397</v>
+        <v>0.04273994540091114</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -1123,19 +1123,19 @@
         <v>46725</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34663</v>
+        <v>34190</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>62420</v>
+        <v>63127</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02664548999506518</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01976681184519641</v>
+        <v>0.01949718439543507</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03559535017177343</v>
+        <v>0.0359987576192163</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>108</v>
@@ -1144,19 +1144,19 @@
         <v>113529</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>93967</v>
+        <v>91973</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>137644</v>
+        <v>135167</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03058110166864227</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02531151734996877</v>
+        <v>0.02477458896685303</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03707678509505818</v>
+        <v>0.03640952521623421</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>611874</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>571482</v>
+        <v>570375</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>656920</v>
+        <v>660669</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3123706380439988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2917499822832505</v>
+        <v>0.2911848159542664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3353670262207943</v>
+        <v>0.3372811958319288</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>518</v>
@@ -1194,19 +1194,19 @@
         <v>545880</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>502103</v>
+        <v>503689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>585890</v>
+        <v>583521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3112920467348885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2863275963757633</v>
+        <v>0.2872323746050104</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3341079235139787</v>
+        <v>0.3327568603352501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1096</v>
@@ -1215,19 +1215,19 @@
         <v>1157755</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1099180</v>
+        <v>1103300</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1216811</v>
+        <v>1217835</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3118611535086601</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2960831160873029</v>
+        <v>0.2971927199035992</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3277688829170083</v>
+        <v>0.3280446746734532</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>79885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63247</v>
+        <v>61772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100952</v>
+        <v>98897</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04078268022348401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03228826912289973</v>
+        <v>0.03153564986230434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05153767250068823</v>
+        <v>0.05048837517482985</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>66</v>
@@ -1265,19 +1265,19 @@
         <v>73407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57456</v>
+        <v>57393</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>92871</v>
+        <v>94779</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04186074827911716</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03276452940766632</v>
+        <v>0.03272883358363454</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05296022011195423</v>
+        <v>0.05404864117471059</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>138</v>
@@ -1286,19 +1286,19 @@
         <v>153292</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>128645</v>
+        <v>128566</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>181669</v>
+        <v>178809</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04129191759425502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03465283852331087</v>
+        <v>0.03463155626801497</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04893574508352054</v>
+        <v>0.04816518224246759</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>234167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>209741</v>
+        <v>210308</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>256526</v>
+        <v>259711</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4866508538683795</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4358880810554814</v>
+        <v>0.4370662998455789</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5331168234091889</v>
+        <v>0.5397374210001422</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>220</v>
@@ -1340,19 +1340,19 @@
         <v>244329</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>221082</v>
+        <v>220369</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>266577</v>
+        <v>266536</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5327354522549606</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.482046985026251</v>
+        <v>0.4804937744061793</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5812444700825333</v>
+        <v>0.5811561398812004</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>430</v>
@@ -1361,19 +1361,19 @@
         <v>478497</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>447560</v>
+        <v>441771</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>512368</v>
+        <v>507383</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5091402641626311</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4762223592148394</v>
+        <v>0.4700630022553451</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5451803406761793</v>
+        <v>0.5398770155226125</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>29405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19604</v>
+        <v>20345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41298</v>
+        <v>42433</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0611095249039141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04074075453040775</v>
+        <v>0.04228215121344939</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08582553112314048</v>
+        <v>0.08818543066772846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1411,19 +1411,19 @@
         <v>25583</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17689</v>
+        <v>16988</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37061</v>
+        <v>37297</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05578169825714828</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03856870472686001</v>
+        <v>0.03704015469846648</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08080881787410246</v>
+        <v>0.08132223027499517</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -1432,19 +1432,19 @@
         <v>54988</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42065</v>
+        <v>42503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71245</v>
+        <v>72371</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05850953090091435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04475855044977271</v>
+        <v>0.04522444095900367</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07580774644650305</v>
+        <v>0.07700577143290795</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>206647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>184802</v>
+        <v>182345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>232177</v>
+        <v>231394</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4294577097162852</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3840585666123154</v>
+        <v>0.3789520597154498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.482515757081733</v>
+        <v>0.4808871642217415</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -1482,19 +1482,19 @@
         <v>184578</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>162593</v>
+        <v>161962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>206860</v>
+        <v>205873</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4024541178484923</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3545173383783972</v>
+        <v>0.3531413825980819</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4510379313654233</v>
+        <v>0.4488859312820639</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>352</v>
@@ -1503,19 +1503,19 @@
         <v>391225</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>359030</v>
+        <v>362133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>422823</v>
+        <v>426441</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.416279882889218</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3820227617918505</v>
+        <v>0.385324770373673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4499008647701344</v>
+        <v>0.4537511116022854</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>11899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5950</v>
+        <v>6005</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21905</v>
+        <v>21512</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02472922847063043</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01236500690128767</v>
+        <v>0.01247925266640358</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04552385912917946</v>
+        <v>0.04470745255991887</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -1553,19 +1553,19 @@
         <v>10387</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5005</v>
+        <v>5067</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20141</v>
+        <v>19005</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02264799969770561</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0109135473168584</v>
+        <v>0.01104790705758732</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04391629199894502</v>
+        <v>0.04143842995251904</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>20</v>
@@ -1574,19 +1574,19 @@
         <v>22286</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13913</v>
+        <v>13170</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>33108</v>
+        <v>33534</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02371358312643368</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01480347913551353</v>
+        <v>0.01401327983675048</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03522861309922896</v>
+        <v>0.03568176625660319</v>
       </c>
     </row>
     <row r="16">
@@ -1607,19 +1607,19 @@
         <v>2156916</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2097714</v>
+        <v>2100925</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2213886</v>
+        <v>2216493</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.632028624240595</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6146811652850803</v>
+        <v>0.6156219001633988</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6487222434584977</v>
+        <v>0.6494861853137187</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2129</v>
@@ -1628,19 +1628,19 @@
         <v>2307970</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2248126</v>
+        <v>2251005</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2363850</v>
+        <v>2363128</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6501281215283884</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6332707268420699</v>
+        <v>0.6340818869391764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6658689201885631</v>
+        <v>0.6656656333178924</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4148</v>
@@ -1649,19 +1649,19 @@
         <v>4464886</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4379959</v>
+        <v>4381687</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4551909</v>
+        <v>4542912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6412568746672448</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6290595185032259</v>
+        <v>0.6293077683085594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6537553285437847</v>
+        <v>0.6524632381788591</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>107529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87489</v>
+        <v>87853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>128471</v>
+        <v>130505</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03150870226549087</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02563638757678498</v>
+        <v>0.0257430432033656</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03764521212952947</v>
+        <v>0.03824121851455148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -1699,19 +1699,19 @@
         <v>95576</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76046</v>
+        <v>77800</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115762</v>
+        <v>117470</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02692256643106166</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02142128956162224</v>
+        <v>0.02191523430785769</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03260868223370611</v>
+        <v>0.03309003087682557</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>194</v>
@@ -1720,19 +1720,19 @@
         <v>203105</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>178234</v>
+        <v>177057</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>236856</v>
+        <v>237034</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02917040472618364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02559840362586511</v>
+        <v>0.02542927955699231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03401779828377909</v>
+        <v>0.03404338268308811</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>1015354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>963665</v>
+        <v>959746</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1073507</v>
+        <v>1065411</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2975234696213884</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2823770631178163</v>
+        <v>0.2812289084222288</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.314563582607171</v>
+        <v>0.3121912563568312</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>942</v>
@@ -1770,19 +1770,19 @@
         <v>1005887</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>948413</v>
+        <v>951190</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1060908</v>
+        <v>1061876</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2833466437589603</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2671567249938838</v>
+        <v>0.2679391826226188</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2988453945754324</v>
+        <v>0.2991181996707849</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1892</v>
@@ -1791,19 +1791,19 @@
         <v>2021242</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1941198</v>
+        <v>1942901</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2099037</v>
+        <v>2099115</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2902952412770728</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2787992656828451</v>
+        <v>0.2790437720371268</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3014684591900244</v>
+        <v>0.3014796038353399</v>
       </c>
     </row>
     <row r="19">
@@ -1820,19 +1820,19 @@
         <v>142116</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>119475</v>
+        <v>121854</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>166208</v>
+        <v>168627</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04164340422462055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03500902505037341</v>
+        <v>0.0357061298846344</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04870284830325555</v>
+        <v>0.04941173121913296</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>146</v>
@@ -1841,19 +1841,19 @@
         <v>159575</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>134700</v>
+        <v>135489</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>184509</v>
+        <v>186384</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04495051249994438</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03794344133423765</v>
+        <v>0.03816554132111939</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05197408805998922</v>
+        <v>0.05250229565889118</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>277</v>
@@ -1862,19 +1862,19 @@
         <v>301691</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>265662</v>
+        <v>266728</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>338686</v>
+        <v>336688</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04332957389372603</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03815496648555209</v>
+        <v>0.03830807951417633</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04864285587710164</v>
+        <v>0.04835585040837899</v>
       </c>
     </row>
     <row r="20">
@@ -2134,19 +2134,19 @@
         <v>459887</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>434142</v>
+        <v>433368</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>487775</v>
+        <v>487602</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6096485191075219</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5755199196670003</v>
+        <v>0.5744939909959627</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6466194820794915</v>
+        <v>0.6463891390677168</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>512</v>
@@ -2155,19 +2155,19 @@
         <v>568321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>533563</v>
+        <v>536081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>598478</v>
+        <v>599704</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5713725145164951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5364271817899079</v>
+        <v>0.5389592428898557</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6016914603864919</v>
+        <v>0.6029233006610848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>983</v>
@@ -2176,19 +2176,19 @@
         <v>1028208</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>983114</v>
+        <v>983506</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1066929</v>
+        <v>1066562</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5878809570478858</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5620986039302283</v>
+        <v>0.562322791266217</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6100197648820526</v>
+        <v>0.6098101141382666</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>3824</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9134</v>
+        <v>8761</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005069237297751681</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001201552932663738</v>
+        <v>0.001197178240927929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01210814642146964</v>
+        <v>0.01161404079595231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -2226,19 +2226,19 @@
         <v>12606</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7214</v>
+        <v>6551</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24204</v>
+        <v>22039</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01267377438986209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007253103502769789</v>
+        <v>0.006585761770358349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02433393768687742</v>
+        <v>0.02215772030604339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -2247,19 +2247,19 @@
         <v>16430</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9866</v>
+        <v>9661</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26591</v>
+        <v>28251</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009393937194096782</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005641102302202165</v>
+        <v>0.005523802304121635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01520376836578784</v>
+        <v>0.01615247050681757</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>126746</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107742</v>
+        <v>107066</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148071</v>
+        <v>147133</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1680206611521788</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1428282378979388</v>
+        <v>0.1419313928807042</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1962905038271686</v>
+        <v>0.1950463066785319</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>181</v>
@@ -2297,19 +2297,19 @@
         <v>208064</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>182527</v>
+        <v>182197</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>236605</v>
+        <v>236471</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2091808557307761</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1835066257983857</v>
+        <v>0.1831753667149815</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2378748195038445</v>
+        <v>0.2377407379066285</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>309</v>
@@ -2318,19 +2318,19 @@
         <v>334810</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>305487</v>
+        <v>300977</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>370471</v>
+        <v>368898</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.191428461925783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1746630245088884</v>
+        <v>0.1720845331132486</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2118177041658273</v>
+        <v>0.2109188205336036</v>
       </c>
     </row>
     <row r="7">
@@ -2347,19 +2347,19 @@
         <v>164978</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>143383</v>
+        <v>143775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>188269</v>
+        <v>187609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2187026291828888</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.190076108320203</v>
+        <v>0.1905955603593517</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2495783168649986</v>
+        <v>0.2487043196558547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>189</v>
@@ -2368,19 +2368,19 @@
         <v>206778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>181863</v>
+        <v>182942</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>236274</v>
+        <v>234863</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2078878573921245</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1828391485800929</v>
+        <v>0.1839238671787265</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2375424642874197</v>
+        <v>0.2361237135210704</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>349</v>
@@ -2389,19 +2389,19 @@
         <v>371755</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>340374</v>
+        <v>341034</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>406711</v>
+        <v>408012</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2125522689603004</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1946100510065874</v>
+        <v>0.1949873161444843</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2325381561341988</v>
+        <v>0.2332820191474159</v>
       </c>
     </row>
     <row r="8">
@@ -2422,19 +2422,19 @@
         <v>1073156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1026952</v>
+        <v>1022922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1121636</v>
+        <v>1120825</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5168385324005694</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4945863772781099</v>
+        <v>0.49264573399459</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5401870332563046</v>
+        <v>0.539796225593587</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1000</v>
@@ -2443,19 +2443,19 @@
         <v>1033375</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>993416</v>
+        <v>986661</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1084388</v>
+        <v>1082653</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5197279037978444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4996307211540387</v>
+        <v>0.4962333874065963</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5453842964413617</v>
+        <v>0.5445121190071051</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2026</v>
@@ -2464,19 +2464,19 @@
         <v>2106531</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2044364</v>
+        <v>2046932</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2171855</v>
+        <v>2169703</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5182519106312621</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.502957612575853</v>
+        <v>0.5035892132490328</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5343230247106019</v>
+        <v>0.5337935218269447</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>48295</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>36694</v>
+        <v>35760</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>63794</v>
+        <v>64386</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02325914107439396</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01767197062981988</v>
+        <v>0.01722201190794706</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03072366263055575</v>
+        <v>0.03100857908764814</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>36</v>
@@ -2514,19 +2514,19 @@
         <v>37226</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26003</v>
+        <v>25880</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>50673</v>
+        <v>51413</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01872258674965347</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01307817731690544</v>
+        <v>0.01301611241457632</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02548565160054185</v>
+        <v>0.02585769648872143</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>82</v>
@@ -2535,19 +2535,19 @@
         <v>85521</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>68335</v>
+        <v>69300</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>105858</v>
+        <v>106945</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02104001925052946</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01681177107718308</v>
+        <v>0.01704928085505441</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02604323896729827</v>
+        <v>0.02631084855810904</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>639071</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>597990</v>
+        <v>595988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>683875</v>
+        <v>682869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3077806862523111</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2879957274063095</v>
+        <v>0.2870317856826343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3293583148921334</v>
+        <v>0.3288737678226271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>638</v>
@@ -2585,19 +2585,19 @@
         <v>675700</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>630787</v>
+        <v>629500</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>718952</v>
+        <v>719827</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3398379524564274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3172491717415146</v>
+        <v>0.3166019558984662</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3615914758850608</v>
+        <v>0.3620314340721253</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1238</v>
@@ -2606,19 +2606,19 @@
         <v>1314771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1253371</v>
+        <v>1259131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1376088</v>
+        <v>1375896</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3234619663505182</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3083561930170862</v>
+        <v>0.3097733062334204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3385472895895932</v>
+        <v>0.3385000628841244</v>
       </c>
     </row>
     <row r="11">
@@ -2635,19 +2635,19 @@
         <v>318894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>281269</v>
+        <v>285906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>352367</v>
+        <v>354223</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1535814881501378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1354608036628328</v>
+        <v>0.1376938806836041</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1697021146801364</v>
+        <v>0.1705960125619225</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>239</v>
@@ -2656,19 +2656,19 @@
         <v>246848</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>217701</v>
+        <v>219383</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276259</v>
+        <v>278660</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1241504619623969</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1094911697592145</v>
+        <v>0.1103370029262557</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1389423427022724</v>
+        <v>0.1401500910403374</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>522</v>
@@ -2677,19 +2677,19 @@
         <v>565743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>519404</v>
+        <v>523865</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>608908</v>
+        <v>611958</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1391848717234891</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1277846245283978</v>
+        <v>0.1288821149716064</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1498045619692181</v>
+        <v>0.1505548310501323</v>
       </c>
     </row>
     <row r="12">
@@ -2710,19 +2710,19 @@
         <v>255739</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>232610</v>
+        <v>232664</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>280434</v>
+        <v>281564</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4676269110444013</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4253363444629306</v>
+        <v>0.4254343329586636</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5127834379898343</v>
+        <v>0.5148496976838823</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>241</v>
@@ -2731,19 +2731,19 @@
         <v>246183</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>221118</v>
+        <v>221787</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>269902</v>
+        <v>268351</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4483066048674737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4026615557029214</v>
+        <v>0.403880758856788</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4915000644778995</v>
+        <v>0.4886749438285032</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>474</v>
@@ -2752,19 +2752,19 @@
         <v>501922</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>468346</v>
+        <v>469894</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>538114</v>
+        <v>536655</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4579468904006547</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4273120186212921</v>
+        <v>0.4287250440522102</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4909681572291984</v>
+        <v>0.4896362997155127</v>
       </c>
     </row>
     <row r="13">
@@ -2781,19 +2781,19 @@
         <v>41989</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29692</v>
+        <v>31261</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56766</v>
+        <v>56943</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07677755163874324</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05429332989233031</v>
+        <v>0.05716095565651285</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1037986838749043</v>
+        <v>0.104121742340912</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -2802,19 +2802,19 @@
         <v>38121</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27784</v>
+        <v>27439</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52490</v>
+        <v>51362</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06941952388253192</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05059594019593081</v>
+        <v>0.04996694766964065</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09558643380533527</v>
+        <v>0.09353164167679057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -2823,19 +2823,19 @@
         <v>80110</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64656</v>
+        <v>63891</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99854</v>
+        <v>101145</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07309097131619927</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05899155223733229</v>
+        <v>0.05829369937372084</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09110509243061982</v>
+        <v>0.09228320965614793</v>
       </c>
     </row>
     <row r="14">
@@ -2852,19 +2852,19 @@
         <v>200509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>175438</v>
+        <v>176262</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>223035</v>
+        <v>221771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3666376044059683</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.320794617782587</v>
+        <v>0.3223019994856189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4078266526652132</v>
+        <v>0.4055163326952383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>194</v>
@@ -2873,19 +2873,19 @@
         <v>208139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>184895</v>
+        <v>186675</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>234763</v>
+        <v>231818</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3790267437426813</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3366983797674009</v>
+        <v>0.3399401223485295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4275105531775358</v>
+        <v>0.4221469227744454</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>379</v>
@@ -2894,19 +2894,19 @@
         <v>408648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>372970</v>
+        <v>376218</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>440549</v>
+        <v>439621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3728449141369524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3402931144676581</v>
+        <v>0.3432559502421477</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4019509901189356</v>
+        <v>0.401104428520362</v>
       </c>
     </row>
     <row r="15">
@@ -2923,19 +2923,19 @@
         <v>48650</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>36486</v>
+        <v>36484</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>64383</v>
+        <v>62110</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08895793291088713</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06671515783455076</v>
+        <v>0.06671310114780904</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1177265633532392</v>
+        <v>0.113570263411293</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>55</v>
@@ -2944,19 +2944,19 @@
         <v>57798</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>44496</v>
+        <v>44125</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>73206</v>
+        <v>73534</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1052520369097409</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0810285074852857</v>
+        <v>0.08035373178893597</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1333098300190593</v>
+        <v>0.1339076883857559</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>98</v>
@@ -2965,19 +2965,19 @@
         <v>106448</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>85560</v>
+        <v>86675</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>128693</v>
+        <v>126262</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09712174054601752</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07806401320143842</v>
+        <v>0.07908117801511692</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1174178615212258</v>
+        <v>0.1152001210576272</v>
       </c>
     </row>
     <row r="16">
@@ -2998,19 +2998,19 @@
         <v>1788781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1725044</v>
+        <v>1725857</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1850819</v>
+        <v>1841893</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5295983406205945</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5107281081212427</v>
+        <v>0.5109688173282515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5479656457001233</v>
+        <v>0.5453230505626827</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1753</v>
@@ -3019,19 +3019,19 @@
         <v>1847879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1792875</v>
+        <v>1790288</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1907246</v>
+        <v>1909802</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5231673638411958</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5075946507942222</v>
+        <v>0.5068621425833983</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5399752107617748</v>
+        <v>0.5406986826866911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3483</v>
@@ -3040,19 +3040,19 @@
         <v>3636660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3552440</v>
+        <v>3558978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3722780</v>
+        <v>3733242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5263109625946488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5141222837296076</v>
+        <v>0.5150685467422139</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5387745338859351</v>
+        <v>0.5402886909150522</v>
       </c>
     </row>
     <row r="17">
@@ -3069,19 +3069,19 @@
         <v>94107</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73994</v>
+        <v>75744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114458</v>
+        <v>115465</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02786208525934275</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02190707848898935</v>
+        <v>0.02242523839974017</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03388714194688888</v>
+        <v>0.03418531957506902</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -3090,19 +3090,19 @@
         <v>87953</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68749</v>
+        <v>68344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107657</v>
+        <v>108330</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02490112617723692</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01946397958024964</v>
+        <v>0.01934935014748853</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03047963747707802</v>
+        <v>0.03067004801831399</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>174</v>
@@ -3111,19 +3111,19 @@
         <v>182061</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155173</v>
+        <v>156871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>211694</v>
+        <v>210760</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02634850619411883</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02245718967217153</v>
+        <v>0.02270299428478281</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03063711932746616</v>
+        <v>0.03050190108395525</v>
       </c>
     </row>
     <row r="18">
@@ -3140,19 +3140,19 @@
         <v>966326</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>913671</v>
+        <v>910745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1023317</v>
+        <v>1019015</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2860969170320586</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2705075670585077</v>
+        <v>0.2696412630078652</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3029700172341503</v>
+        <v>0.3016962257176624</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1013</v>
@@ -3161,19 +3161,19 @@
         <v>1091902</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1037188</v>
+        <v>1035587</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1151039</v>
+        <v>1147646</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.309136883093399</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2936463454949862</v>
+        <v>0.2931928745091591</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3258793801247044</v>
+        <v>0.3249189519909739</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1926</v>
@@ -3182,19 +3182,19 @@
         <v>2058228</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1978887</v>
+        <v>1979222</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2134355</v>
+        <v>2140779</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2978744557709975</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2863918091711614</v>
+        <v>0.2864403892887393</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3088917044803434</v>
+        <v>0.3098215193544857</v>
       </c>
     </row>
     <row r="19">
@@ -3211,19 +3211,19 @@
         <v>532522</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>489182</v>
+        <v>486196</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>578929</v>
+        <v>577301</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1576619350396557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1448305591696853</v>
+        <v>0.1439463356027616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1714016749810246</v>
+        <v>0.1709195116828541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>483</v>
@@ -3232,19 +3232,19 @@
         <v>511424</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>467423</v>
+        <v>471304</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>552597</v>
+        <v>555301</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1447932391719155</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.132335781420156</v>
+        <v>0.1334345827879298</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1564501186760124</v>
+        <v>0.1572154418051085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>969</v>
@@ -3253,19 +3253,19 @@
         <v>1043946</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>988036</v>
+        <v>987077</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1114115</v>
+        <v>1102481</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1510837324633835</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1429921969825683</v>
+        <v>0.1428534519023655</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1612388957008896</v>
+        <v>0.1595551889271347</v>
       </c>
     </row>
     <row r="20">
@@ -3525,19 +3525,19 @@
         <v>405702</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>382854</v>
+        <v>383260</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>424515</v>
+        <v>426606</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7037318830796169</v>
+        <v>0.7037318830796172</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6640999934147507</v>
+        <v>0.664803898842687</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7363650798598024</v>
+        <v>0.7399921241456174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1083</v>
@@ -3546,19 +3546,19 @@
         <v>615521</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>595699</v>
+        <v>593205</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>633817</v>
+        <v>634105</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7494030503104724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7252701343289193</v>
+        <v>0.7222339042721647</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7716795739489114</v>
+        <v>0.7720301886186036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1584</v>
@@ -3567,19 +3567,19 @@
         <v>1021224</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>989516</v>
+        <v>993515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1050429</v>
+        <v>1049525</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7305673447283861</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.707884497481021</v>
+        <v>0.7107451113259927</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7514603592060897</v>
+        <v>0.7508135204313091</v>
       </c>
     </row>
     <row r="5">
@@ -3596,19 +3596,19 @@
         <v>17886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11567</v>
+        <v>11716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26320</v>
+        <v>26382</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03102459761319748</v>
+        <v>0.03102459761319749</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02006328982685688</v>
+        <v>0.02032274110271025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04565537324107346</v>
+        <v>0.04576286161466848</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -3617,19 +3617,19 @@
         <v>22828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16576</v>
+        <v>16898</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30962</v>
+        <v>30768</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02779287125490232</v>
+        <v>0.02779287125490233</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02018144153718772</v>
+        <v>0.02057300225955127</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03769670078643875</v>
+        <v>0.03746043230262761</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -3638,19 +3638,19 @@
         <v>40713</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31119</v>
+        <v>32540</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51439</v>
+        <v>51718</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02912570003720659</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0222620745425742</v>
+        <v>0.02327855481700501</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0367987218239702</v>
+        <v>0.03699824748850741</v>
       </c>
     </row>
     <row r="6">
@@ -3667,19 +3667,19 @@
         <v>70599</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56813</v>
+        <v>55965</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88802</v>
+        <v>86910</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1224607887432767</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09854755447456234</v>
+        <v>0.09707657932644621</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1540367898312023</v>
+        <v>0.1507535195617179</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>134</v>
@@ -3688,19 +3688,19 @@
         <v>77611</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65061</v>
+        <v>64868</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>91882</v>
+        <v>90970</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09449162263224899</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07921235002744459</v>
+        <v>0.07897800259647074</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1118668430296744</v>
+        <v>0.1107571828674502</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>214</v>
@@ -3709,19 +3709,19 @@
         <v>148209</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>127170</v>
+        <v>129493</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>169406</v>
+        <v>170036</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1060266678300399</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0909754309700275</v>
+        <v>0.09263691199376091</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1211902090463637</v>
+        <v>0.1216407519522668</v>
       </c>
     </row>
     <row r="7">
@@ -3738,19 +3738,19 @@
         <v>82314</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66449</v>
+        <v>64894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99987</v>
+        <v>99745</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1427827305639088</v>
+        <v>0.1427827305639089</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1152632380670969</v>
+        <v>0.1125658046181828</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1734368693842005</v>
+        <v>0.1730184424495633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>166</v>
@@ -3759,19 +3759,19 @@
         <v>105389</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90623</v>
+        <v>91056</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122311</v>
+        <v>122318</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1283124558023763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1103345978087874</v>
+        <v>0.1108615727688884</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1489145632478141</v>
+        <v>0.1489236079001961</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>248</v>
@@ -3780,19 +3780,19 @@
         <v>187704</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165001</v>
+        <v>163421</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>212359</v>
+        <v>210080</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1342802874043675</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1180390311031528</v>
+        <v>0.1169086961436501</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1519186283880558</v>
+        <v>0.1502882834712128</v>
       </c>
     </row>
     <row r="8">
@@ -3813,19 +3813,19 @@
         <v>1464980</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1411082</v>
+        <v>1411581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1513860</v>
+        <v>1514142</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6590129202862955</v>
+        <v>0.6590129202862958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6347672227901535</v>
+        <v>0.6349915600207199</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6810012616032429</v>
+        <v>0.6811277827659735</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1951</v>
@@ -3834,19 +3834,19 @@
         <v>1444878</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1402802</v>
+        <v>1400390</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1484304</v>
+        <v>1487015</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6671101154923672</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6476831548592896</v>
+        <v>0.6465697030884833</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6853129943555191</v>
+        <v>0.6865647983898061</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3292</v>
@@ -3855,19 +3855,19 @@
         <v>2909859</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2838593</v>
+        <v>2839262</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2972829</v>
+        <v>2969130</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.663008831222374</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6467708444021013</v>
+        <v>0.6469232744929881</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6773566217284125</v>
+        <v>0.6765136588812412</v>
       </c>
     </row>
     <row r="9">
@@ -3884,19 +3884,19 @@
         <v>105889</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>86345</v>
+        <v>84610</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>129703</v>
+        <v>127730</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04763353205445035</v>
+        <v>0.04763353205445036</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03884158786730377</v>
+        <v>0.03806111252448057</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05834629644242283</v>
+        <v>0.05745876407264522</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>153</v>
@@ -3905,19 +3905,19 @@
         <v>107424</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>91770</v>
+        <v>91532</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>127311</v>
+        <v>127080</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04959841060582167</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04237096020975888</v>
+        <v>0.04226114398389302</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05878026615465679</v>
+        <v>0.05867383374281923</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>257</v>
@@ -3926,19 +3926,19 @@
         <v>213313</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>186273</v>
+        <v>186950</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>243638</v>
+        <v>243769</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04860318629788554</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04244209045281907</v>
+        <v>0.04259639056385513</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05551281681287984</v>
+        <v>0.05554262751670566</v>
       </c>
     </row>
     <row r="10">
@@ -3955,19 +3955,19 @@
         <v>379258</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>339948</v>
+        <v>338520</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>424626</v>
+        <v>420100</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1706069585511353</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.15292362030014</v>
+        <v>0.1522811306175482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1910154564727951</v>
+        <v>0.1889794443315585</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>466</v>
@@ -3976,19 +3976,19 @@
         <v>345336</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>312083</v>
+        <v>316998</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>376653</v>
+        <v>379219</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1594439224546089</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1440908876369313</v>
+        <v>0.1463600471759905</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1739031065209635</v>
+        <v>0.175088063159645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>786</v>
@@ -3997,19 +3997,19 @@
         <v>724594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>677085</v>
+        <v>671521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>785964</v>
+        <v>787166</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1650980759216911</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1542731172627609</v>
+        <v>0.1530055880842356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1790811166669648</v>
+        <v>0.1793551727816698</v>
       </c>
     </row>
     <row r="11">
@@ -4026,19 +4026,19 @@
         <v>272865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238444</v>
+        <v>238040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309285</v>
+        <v>310509</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1227465891081187</v>
+        <v>0.1227465891081188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1072625941442857</v>
+        <v>0.107080716579741</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1391302608322415</v>
+        <v>0.1396808392992177</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>344</v>
@@ -4047,19 +4047,19 @@
         <v>268239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240276</v>
+        <v>238613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>299083</v>
+        <v>297186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1238475514472022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1109370015854118</v>
+        <v>0.1101690255418665</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1380886068465431</v>
+        <v>0.1372127399991246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>566</v>
@@ -4068,19 +4068,19 @@
         <v>541103</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>494676</v>
+        <v>497146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586159</v>
+        <v>591035</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1232899065580494</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.112711493002076</v>
+        <v>0.1132743067650501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1335557612910915</v>
+        <v>0.1346668224415359</v>
       </c>
     </row>
     <row r="12">
@@ -4101,19 +4101,19 @@
         <v>376206</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>348061</v>
+        <v>348830</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>402185</v>
+        <v>406059</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5286864197522599</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4891335093142958</v>
+        <v>0.4902140958785053</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5651950197615082</v>
+        <v>0.5706382318118847</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>505</v>
@@ -4122,19 +4122,19 @@
         <v>357101</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>331663</v>
+        <v>334434</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>381211</v>
+        <v>381748</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4879960756256372</v>
+        <v>0.4879960756256373</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4532343155170857</v>
+        <v>0.4570199827382398</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5209433187566079</v>
+        <v>0.5216769808686782</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>860</v>
@@ -4143,19 +4143,19 @@
         <v>733307</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>691287</v>
+        <v>697275</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>765949</v>
+        <v>771186</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5080567505309862</v>
+        <v>0.5080567505309863</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4789441130431255</v>
+        <v>0.4830928668837938</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5306717718429763</v>
+        <v>0.5343001252011641</v>
       </c>
     </row>
     <row r="13">
@@ -4172,19 +4172,19 @@
         <v>82637</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68545</v>
+        <v>65408</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100907</v>
+        <v>100501</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1161311787062932</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09632682861254285</v>
+        <v>0.0919180497526248</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1418053016154071</v>
+        <v>0.141234579804254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -4193,19 +4193,19 @@
         <v>98037</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82461</v>
+        <v>82631</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116794</v>
+        <v>116259</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1339725884897658</v>
+        <v>0.1339725884897659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1126873626708564</v>
+        <v>0.1129196251959043</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1596053689388383</v>
+        <v>0.1588731577338263</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -4214,19 +4214,19 @@
         <v>180675</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158670</v>
+        <v>159550</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>206355</v>
+        <v>205567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1251766264697449</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1099312538295929</v>
+        <v>0.1105408486083271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1429689435852153</v>
+        <v>0.1424228562902403</v>
       </c>
     </row>
     <row r="14">
@@ -4243,19 +4243,19 @@
         <v>176629</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>156798</v>
+        <v>152273</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>207076</v>
+        <v>201258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2482187534593339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2203496062894464</v>
+        <v>0.2139907203748673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2910062101192311</v>
+        <v>0.2828292118883746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>258</v>
@@ -4264,19 +4264,19 @@
         <v>194798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>173421</v>
+        <v>174392</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>217682</v>
+        <v>217072</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2662005647440363</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2369890451479094</v>
+        <v>0.2383150825959712</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.297473407184857</v>
+        <v>0.2966392090845283</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>429</v>
@@ -4285,19 +4285,19 @@
         <v>371427</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>340792</v>
+        <v>340570</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>409474</v>
+        <v>403461</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2573353836271302</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2361103582930705</v>
+        <v>0.2359567642400292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2836956610064707</v>
+        <v>0.2795293879646599</v>
       </c>
     </row>
     <row r="15">
@@ -4314,19 +4314,19 @@
         <v>76114</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>59257</v>
+        <v>58514</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>97903</v>
+        <v>97866</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.106963648082113</v>
+        <v>0.1069636480821129</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08327501312400132</v>
+        <v>0.0822298616242763</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1375839930533997</v>
+        <v>0.1375319970417366</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>101</v>
@@ -4335,19 +4335,19 @@
         <v>81834</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>66246</v>
+        <v>66193</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>99991</v>
+        <v>99707</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1118307711405605</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09052847113293427</v>
+        <v>0.09045646493230437</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1366420140393758</v>
+        <v>0.1362541470308815</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>163</v>
@@ -4356,19 +4356,19 @@
         <v>157948</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>134645</v>
+        <v>135948</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>184780</v>
+        <v>186278</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1094312393721387</v>
+        <v>0.1094312393721388</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09328613243019271</v>
+        <v>0.09418879490202417</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1280209300419667</v>
+        <v>0.12905900754798</v>
       </c>
     </row>
     <row r="16">
@@ -4389,19 +4389,19 @@
         <v>2246889</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2178197</v>
+        <v>2186644</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2309805</v>
+        <v>2316108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6399424032161434</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6203779819374408</v>
+        <v>0.6227837363390948</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6578618025297854</v>
+        <v>0.6596567292504346</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3539</v>
@@ -4410,19 +4410,19 @@
         <v>2417501</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2363133</v>
+        <v>2358941</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2469005</v>
+        <v>2467972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6500412180727079</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6354222119549152</v>
+        <v>0.634295027892122</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6638902426918715</v>
+        <v>0.6636123733934245</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5736</v>
@@ -4431,19 +4431,19 @@
         <v>4664390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4575289</v>
+        <v>4581061</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4749528</v>
+        <v>4750929</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6451370166729635</v>
+        <v>0.6451370166729637</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6328134010087204</v>
+        <v>0.633611790062144</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6569125648223841</v>
+        <v>0.6571063256647253</v>
       </c>
     </row>
     <row r="17">
@@ -4460,19 +4460,19 @@
         <v>206412</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179030</v>
+        <v>177823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>237638</v>
+        <v>236282</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05878877954930352</v>
+        <v>0.05878877954930351</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05099001710797019</v>
+        <v>0.05064620371257356</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0676822881055297</v>
+        <v>0.06729623701724756</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>332</v>
@@ -4481,19 +4481,19 @@
         <v>228289</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>205346</v>
+        <v>204145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>256998</v>
+        <v>259149</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06138454142496683</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05521550840217693</v>
+        <v>0.05489263163809564</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06910424505584371</v>
+        <v>0.06968248965709574</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>555</v>
@@ -4502,19 +4502,19 @@
         <v>434701</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>398712</v>
+        <v>397910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>478961</v>
+        <v>475104</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06012398370558692</v>
+        <v>0.06012398370558693</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05514632748284093</v>
+        <v>0.05503539770394883</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06624563664632986</v>
+        <v>0.06571212364458799</v>
       </c>
     </row>
     <row r="18">
@@ -4531,19 +4531,19 @@
         <v>626486</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>575101</v>
+        <v>574232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>681293</v>
+        <v>682901</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.178431109604903</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1637960800174574</v>
+        <v>0.1635485144531822</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1940410045085822</v>
+        <v>0.1944988141467587</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>858</v>
@@ -4552,19 +4552,19 @@
         <v>617744</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>576790</v>
+        <v>578228</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>661123</v>
+        <v>656665</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1661050935524301</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1550928399478148</v>
+        <v>0.1554796094413168</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1777692743779901</v>
+        <v>0.1765705836402349</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1429</v>
@@ -4573,19 +4573,19 @@
         <v>1244230</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1177404</v>
+        <v>1178380</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1320636</v>
+        <v>1314895</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1720908716894076</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1628480783439752</v>
+        <v>0.1629830923337429</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1826587288487544</v>
+        <v>0.1818646502798106</v>
       </c>
     </row>
     <row r="19">
@@ -4602,19 +4602,19 @@
         <v>431293</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>389569</v>
+        <v>390433</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>479096</v>
+        <v>476376</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1228377076296502</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1109540601131127</v>
+        <v>0.1112002570789983</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1364527158580301</v>
+        <v>0.135677874599594</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>611</v>
@@ -4623,19 +4623,19 @@
         <v>455462</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>421459</v>
+        <v>421880</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>494625</v>
+        <v>496421</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1224691469498951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1133260900491872</v>
+        <v>0.1134392991340492</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1329996217047548</v>
+        <v>0.1334824937578032</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>977</v>
@@ -4644,19 +4644,19 @@
         <v>886755</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>835139</v>
+        <v>834666</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>944164</v>
+        <v>950019</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1226481279320418</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1155090663260777</v>
+        <v>0.1154436005951078</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1305883630272568</v>
+        <v>0.1313981624860911</v>
       </c>
     </row>
     <row r="20">
